--- a/SSSSSSS.xlsx
+++ b/SSSSSSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>Transaction_Type</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value Date</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Ref No.\/Cheque No.</t>
+    <t>Chq.\/Ref.No.</t>
+  </si>
+  <si>
+    <t>Value Dt</t>
   </si>
   <si>
     <t>Debit</t>
@@ -40,148 +40,256 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>Card Transaction</t>
+  </si>
+  <si>
+    <t>Net Banking</t>
+  </si>
+  <si>
     <t>Auto Debit</t>
   </si>
   <si>
     <t>ATM Transaction</t>
   </si>
   <si>
-    <t>Net Banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 Jul 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Aug 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Aug 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Aug 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Aug 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 Jui 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 Ju 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BULK POSTING-ACHCR  SBIN02042000015312 Pay &amp;  Асс. Offt- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM WDL-ATM CASH 4398  PADAM NAGAR  SADAR BAZAR- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-INB Sukanya  Priyanshi-- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-INB Sukanya  Manisha-- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-INB  Freecharge.in  FREECHARGE Payments- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-INB  Freshtohome Foods Private- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-INB Bharti  Airtel Ltd- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY TRANSFER-INB Refund of  IGAJCEQSE3- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY TRANSFER-INB Refund of  IGAJCMYIW9- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI02615634IF248  32711  TRANSFER TO  359 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI02615632IF248  32710  TRANSFER TO  375 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBI90699189441  GAJCEQSE3  TRANSFER TO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBI90714356921  GAJCHESC6  TRANSFER TO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMhu4XRffdXgXII  GAJCIKJO4  TRANSFER TO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBI90749658311  GAJCMYIW9  TRANSFER TO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">109924713876IG  AJCNGYG6  TRANSFER TO 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBI9069918944  1IXGATQUDD9 TRANSFER F </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBI9074965831 11XGATRCSU4 TRANSFER F </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,000.00 </t>
+    <t>Bill Pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/04/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS 416021XXXXXX6378 GOOGLE *SERVICES PO S DEBIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS 416021XXXXXX6378 GOOGLE *GOOGLE POS DEBIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFT CR-KKBK0000958-THE JUICE FACTORY-RO HIT GUPTA-KKBKH19096847951 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFT DR-SBIN00CARDS-STATE BANK OF INDIA- NETBANK, MUM-N096190795509216-CARD PAYME NT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMI 45386544 CHQ S45386544126 0419453865 44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH DEP KASHMERE GAT </t>
+  </si>
+  <si>
+    <t>IB BILLPAY DR-HDFCZF-552365XXXXXX7203</t>
+  </si>
+  <si>
+    <t>IMPS-910117950895-MR ROHIT GUPTA-HDFC- XXXXXXXXXXXXX3401-INETIMPS00082506482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFT DR-SBIN00CARDS-STATE BANK OF INDIA- NETBANK, MUM-N101190800078205-CARD PAYME NT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS 416021XXXXXX6378 MSW*DEEPAK FOAM POS DEBIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS 416021XXXXXX6378 BURGER KING POS DEB IT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS 416021XXXXXX6378 MILK STREET LLP POS DEBIT </t>
+  </si>
+  <si>
+    <t>ATW-416021XXXXXX6378-S1ANDH97-WEST DELHI</t>
+  </si>
+  <si>
+    <t>NWD-416021XXXXXX6378-00726068-DELHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPS-911512547385-JATIN-HDFC-XXXXXXXXXXX 5614-HARE KRISHNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000909037678376 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000909075266695 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KKBKH19096847951 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N096190795509216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000000000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB11141417778967 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000910117950895 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N101190800078205 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000910221690600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000000000062869 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000910306414218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000000000003443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000910818021551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000911512547385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25\/04\/19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,933.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,119.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">550.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">249.90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,000.00 </t>
   </si>
   <si>
     <t xml:space="preserve">2,000.00 </t>
   </si>
   <si>
-    <t xml:space="preserve">100.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">619.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,595.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,010.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,010.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,010.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,010.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,910.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,880.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,261.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,112.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,063.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,163.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,312.18 </t>
+    <t xml:space="preserve">30,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">750.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,104.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,171.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,052.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,052.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,052.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,052.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,052.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,502.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,252.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,117.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,117.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,117.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,867.25 </t>
   </si>
 </sst>
 </file>
@@ -539,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,19 +687,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -599,22 +710,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,25 +736,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -648,25 +762,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -674,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -703,22 +817,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,25 +840,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,25 +866,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,25 +892,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -804,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -830,25 +944,155 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/SSSSSSS.xlsx
+++ b/SSSSSSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>Transaction_Type</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Value Date</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Chq.\/Ref.No.</t>
-  </si>
-  <si>
-    <t>Value Dt</t>
+    <t>Ref No./Cheque No.</t>
   </si>
   <si>
     <t>Debit</t>
@@ -43,253 +43,193 @@
     <t>Card Transaction</t>
   </si>
   <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>ATM Transaction</t>
+  </si>
+  <si>
     <t>Net Banking</t>
   </si>
   <si>
     <t>Auto Debit</t>
   </si>
   <si>
-    <t>ATM Transaction</t>
-  </si>
-  <si>
-    <t>Bill Pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/04/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS 416021XXXXXX6378 GOOGLE *SERVICES PO S DEBIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS 416021XXXXXX6378 GOOGLE *GOOGLE POS DEBIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEFT CR-KKBK0000958-THE JUICE FACTORY-RO HIT GUPTA-KKBKH19096847951 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEFT DR-SBIN00CARDS-STATE BANK OF INDIA- NETBANK, MUM-N096190795509216-CARD PAYME NT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMI 45386544 CHQ S45386544126 0419453865 44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH DEP KASHMERE GAT </t>
-  </si>
-  <si>
-    <t>IB BILLPAY DR-HDFCZF-552365XXXXXX7203</t>
-  </si>
-  <si>
-    <t>IMPS-910117950895-MR ROHIT GUPTA-HDFC- XXXXXXXXXXXXX3401-INETIMPS00082506482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEFT DR-SBIN00CARDS-STATE BANK OF INDIA- NETBANK, MUM-N101190800078205-CARD PAYME NT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS 416021XXXXXX6378 MSW*DEEPAK FOAM POS DEBIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS 416021XXXXXX6378 BURGER KING POS DEB IT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS 416021XXXXXX6378 MILK STREET LLP POS DEBIT </t>
-  </si>
-  <si>
-    <t>ATW-416021XXXXXX6378-S1ANDH97-WEST DELHI</t>
-  </si>
-  <si>
-    <t>NWD-416021XXXXXX6378-00726068-DELHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPS-911512547385-JATIN-HDFC-XXXXXXXXXXX 5614-HARE KRISHNA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000909037678376 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000909075266695 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKBKH19096847951 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N096190795509216 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB11141417778967 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000910117950895 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N101190800078205 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000910221690600 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000000062869 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000910306414218 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000000003443 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000910818021551 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000911512547385 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">08\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25\/04\/19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,933.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,119.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">550.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">249.90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.00 </t>
+    <t xml:space="preserve">4 Feb 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Feb 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Feb 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Feb 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Feb  2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Feb  2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by debit card-  SBIPOS003103117828CHAIRMAN  COMMANDENT SU  AGRA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by debit card-  SBIPOS003103119508CHAIRMAN  COMMANDENT SU  AGRA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by debit card-  SBIPOS003103123328CHAIRMAN  COMMANDENT SU  AGRA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BULK POSTING-  00000004537 010221 M S  RAJESHWAR FILLING- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY TRANSFER-  UPI/CR/103728210551/BIRISI/SBIN/9917902323/Payme- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM WDL-ATM CASH 81993  +PURANI MANDI AGRA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-  UPI/DR/103830322019/Freshju/PYTM/paytmqr281/Payme-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBIT-ACHDr  HDFC05813000028172LICHOUSINGFINL-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBIT-ACHDr  HDFC00017000001103 HDFC  BANK LIMI- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by debit card-  SBIPOS003114264455JUBILANT  FOODWORKS LTD AGRA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104250985170/ASHOKKU/PYTM/paytmqr281/Payme-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104202548079/ASHOKKU/PYTM/paytmqr281/Payme-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM WDL-ATM CASH 7343  +RECYCLER AT TAJGANJ  AAGRA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104289372396/SARITA/PYTM/Q09699224@/Payment-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104285924512/Navalki/PYTM/paytmqr281/Payme-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH DEPOSIT-CASH  DEPOSIT SELF- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104360150027/91261010/BKID/9126101000/Payme-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,636.83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,594.99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">643.70 </t>
   </si>
   <si>
     <t xml:space="preserve">3,000.00 </t>
   </si>
   <si>
-    <t xml:space="preserve">2,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">750.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,104.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,171.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,052.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,052.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,052.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,052.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,052.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,502.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,252.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,117.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,117.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,117.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,867.25 </t>
+    <t xml:space="preserve">25.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,706.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,376.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,042.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">419.80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">400.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,400.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,514.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,919.66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,275.96 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,283.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,283.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,283.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,258.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,552.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,176.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,134.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,715.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,685.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,285.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,285.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,135.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,095.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,095.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,695.04 </t>
   </si>
 </sst>
 </file>
@@ -647,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,19 +630,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -716,19 +653,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -742,19 +676,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -762,25 +693,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -794,19 +722,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -820,19 +745,16 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -843,22 +765,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -872,19 +791,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -892,25 +808,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -918,25 +831,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -947,22 +857,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -970,25 +877,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -996,25 +900,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1022,25 +923,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1051,22 +949,19 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1074,25 +969,68 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
+      <c r="I19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/SSSSSSS.xlsx
+++ b/SSSSSSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Transaction_Type</t>
   </si>
@@ -22,13 +22,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value Date</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Ref No./Cheque No.</t>
+    <t>Chq.\/Ref. No</t>
   </si>
   <si>
     <t>Debit</t>
@@ -40,196 +37,178 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Card Transaction</t>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Bill Pay</t>
+  </si>
+  <si>
+    <t>Auto Debit</t>
+  </si>
+  <si>
+    <t>Payment Gateway</t>
+  </si>
+  <si>
+    <t>ATM Transaction</t>
   </si>
   <si>
     <t>UPI</t>
   </si>
   <si>
-    <t>ATM Transaction</t>
-  </si>
-  <si>
-    <t>Net Banking</t>
-  </si>
-  <si>
-    <t>Auto Debit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Feb 2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Feb 2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Feb 2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Feb 2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Feb  2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Feb  2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">by debit card-  SBIPOS003103117828CHAIRMAN  COMMANDENT SU  AGRA- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">by debit card-  SBIPOS003103119508CHAIRMAN  COMMANDENT SU  AGRA- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">by debit card-  SBIPOS003103123328CHAIRMAN  COMMANDENT SU  AGRA- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BULK POSTING-  00000004537 010221 M S  RAJESHWAR FILLING- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY TRANSFER-  UPI/CR/103728210551/BIRISI/SBIN/9917902323/Payme- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM WDL-ATM CASH 81993  +PURANI MANDI AGRA- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-  UPI/DR/103830322019/Freshju/PYTM/paytmqr281/Payme-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBIT-ACHDr  HDFC05813000028172LICHOUSINGFINL-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBIT-ACHDr  HDFC00017000001103 HDFC  BANK LIMI- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">by debit card-  SBIPOS003114264455JUBILANT  FOODWORKS LTD AGRA- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104250985170/ASHOKKU/PYTM/paytmqr281/Payme-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104202548079/ASHOKKU/PYTM/paytmqr281/Payme-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM WDL-ATM CASH 7343  +RECYCLER AT TAJGANJ  AAGRA- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104289372396/SARITA/PYTM/Q09699224@/Payment-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104285924512/Navalki/PYTM/paytmqr281/Payme-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH DEPOSIT-CASH  DEPOSIT SELF- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO TRANSFER-  UPI/DR/104360150027/91261010/BKID/9126101000/Payme-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,636.83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,594.99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">643.70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,706.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,376.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,042.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">419.80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">400.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,400.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88 </t>
+    <t xml:space="preserve">14-May-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-May-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-May-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-May-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Jun-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brought Forward </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPIO13636603143DRPhonYESBBILL  DESKPPyblPayme  002261100000025PhonePe  OthPSPPayment for category Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPI013716551281DRPhonYESBBILL  DESKPPyblPayme  002261100000025PhonePe  OthPSPPayment for category Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ECS Return 20 May 2020  ValueDate20MAY20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPIO15415982190CRRASHHDFC8915  53272paytmNA  15591140004683RASHMI TRIPATHI  OthPSPNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH DEPOSIT BRANCH  0544INDRAPRASHTA EXTN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPIO16228769567DRFlipYESBIDFCB  NPLyblPayment  002261100000025Flipkart Pay Later  OthPSPPayment from PhonePe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPIO16203229499DRPaytPYTMtmpt  mbbppaytmOid1  19744201000007Paytm  OthPSPOid11091212653Paytm Ut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICICI PRUDENTIAL LIF Zone Serial  3638 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Cash Deposit Home Branch  ValueDate10JUN20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPIO17081360581DRPaytPYTMỊ  epaytmOid1113  19744201000007Paytm Idea Mobile  Recharge  OthPSPOid11131666254Paytm Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH DEPOSIT BRANCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АCH  DEBITTXRX3772357BDECSInvescoM  F NACH INTERFACE 20200620 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">146032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">253.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">424.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,111.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,450.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">335.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,000.00 </t>
   </si>
   <si>
     <t xml:space="preserve">10,000.00 </t>
   </si>
   <si>
-    <t xml:space="preserve">15,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,514.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,919.66 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,275.96 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,283.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,283.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,283.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,258.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,552.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,176.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,134.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,715.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,685.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,285.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,285.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,135.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,095.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,095.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,695.04 </t>
+    <t xml:space="preserve">624.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">424.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">253.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,000.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,576.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,465.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,015.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">897.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">561.54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">482.54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,482.54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,482.54 </t>
   </si>
 </sst>
 </file>
@@ -587,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,34 +594,25 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -650,22 +620,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -673,91 +640,79 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -765,22 +720,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -788,249 +740,159 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
+      <c r="H16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/SSSSSSS.xlsx
+++ b/SSSSSSS.xlsx
@@ -14,201 +14,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>Transaction_Type</t>
   </si>
   <si>
+    <t>Sl No</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Chq.\/Ref. No</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Balance</t>
+    <t>Cheque No</t>
+  </si>
+  <si>
+    <t>Withdrawal (in Rs.)</t>
+  </si>
+  <si>
+    <t>Deposits (in Rs.)</t>
+  </si>
+  <si>
+    <t>Balance (in Rs.)</t>
+  </si>
+  <si>
+    <t>Card Transaction</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Bill Pay</t>
-  </si>
-  <si>
     <t>Auto Debit</t>
   </si>
   <si>
-    <t>Payment Gateway</t>
-  </si>
-  <si>
-    <t>ATM Transaction</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brought Forward </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO13636603143DRPhonYESBBILL  DESKPPyblPayme  002261100000025PhonePe  OthPSPPayment for category Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPI013716551281DRPhonYESBBILL  DESKPPyblPayme  002261100000025PhonePe  OthPSPPayment for category Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To ECS Return 20 May 2020  ValueDate20MAY20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO15415982190CRRASHHDFC8915  53272paytmNA  15591140004683RASHMI TRIPATHI  OthPSPNA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH DEPOSIT BRANCH  0544INDRAPRASHTA EXTN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO16228769567DRFlipYESBIDFCB  NPLyblPayment  002261100000025Flipkart Pay Later  OthPSPPayment from PhonePe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO16203229499DRPaytPYTMtmpt  mbbppaytmOid1  19744201000007Paytm  OthPSPOid11091212653Paytm Ut </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICICI PRUDENTIAL LIF Zone Serial  3638 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Cash Deposit Home Branch  ValueDate10JUN20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO17081360581DRPaytPYTMỊ  epaytmOid1113  19744201000007Paytm Idea Mobile  Recharge  OthPSPOid11131666254Paytm Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH DEPOSIT BRANCH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АCH  DEBITTXRX3772357BDECSInvescoM  F NACH INTERFACE 20200620 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">146032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">424.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,111.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,450.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">335.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">624.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">424.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,000.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,576.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,465.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,015.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">897.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">561.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">482.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,482.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,482.54 </t>
+    <t>Net Banking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76  77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-09-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-09-2020  27-09-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-09-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-09-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-09-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-10-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-10-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-10-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-10-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-10-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-10-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-11-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDR/RAZ*Tjori /99293/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDS For 005843710007859  TDS For 005843710009612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDS For 005856110007838 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int on TD: 1625.00 /7859 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int on TD: 5025.00 /9612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StCon-1289591/artner For SEP20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH CR INW - BCBFD 1365/0012  0993014991 JINAL H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH DR INW - BD-InvescoMF  1073527276 JINAL RUDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH DR INW - AXISMF 1108796083  JINAL RUDRESH PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDR/ENRICH HAIR /54344/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH DR INW - BD-BSE 1252489824  JINAL RUDRESH PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRTR/MIRAE Mutual/210131/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDR/Milaap Socia/374352/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StCon-1306212/artner For OCT20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StCon-21510618/Best Wishes from  Jinal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH DR INW - BD-InvescoMF  1699525158 JINAL RUDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH DR INW - AXISMF 1717984944  JINAL RUDRESH PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDR/VILLA DECOR /614064/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int:31-10-2020/01-08-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACH DR INW - BD-BSE 1835570821  JINAL RUDRESH PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDR/www.fablestr/460833/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDR/ITS ABOUT TI/938253/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRTR/MIRAE Mutual/390551/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFT-Rudresh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,197.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 122.00  377.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,237.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,684.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,700.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,00,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,800.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,975.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,900.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,00,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,625.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,025.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,00,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,270.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,524.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,73,316.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,73,194.72  25,72,817.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,71,580.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,73,205.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,78,230.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,78,230.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,79,500.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,74,500.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,69,500.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,66,816.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,61,816.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,56,816.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,54,116.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,54,116.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,54,116.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,49,116.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,44,116.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,35,316.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,59,840.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,54,840.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,47,865.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,18,965.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,13,965.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,13,965.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,13,965.72 </t>
   </si>
 </sst>
 </file>
@@ -566,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,65 +759,80 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -660,39 +840,45 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -700,59 +886,68 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -760,62 +955,68 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -823,59 +1024,68 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -883,16 +1093,249 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/SSSSSSS.xlsx
+++ b/SSSSSSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Transaction_Type</t>
   </si>
@@ -22,10 +22,13 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Value Date</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Chq.\/Ref. No</t>
+    <t>Ref No./Cheque No.</t>
   </si>
   <si>
     <t>Debit</t>
@@ -37,178 +40,151 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>Net Banking</t>
+  </si>
+  <si>
+    <t>ATM Transaction</t>
+  </si>
+  <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Bill Pay</t>
-  </si>
-  <si>
-    <t>Auto Debit</t>
-  </si>
-  <si>
-    <t>Payment Gateway</t>
-  </si>
-  <si>
-    <t>ATM Transaction</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-May-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Jun-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brought Forward </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO13636603143DRPhonYESBBILL  DESKPPyblPayme  002261100000025PhonePe  OthPSPPayment for category Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPI013716551281DRPhonYESBBILL  DESKPPyblPayme  002261100000025PhonePe  OthPSPPayment for category Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To ECS Return 20 May 2020  ValueDate20MAY20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO15415982190CRRASHHDFC8915  53272paytmNA  15591140004683RASHMI TRIPATHI  OthPSPNA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH DEPOSIT BRANCH  0544INDRAPRASHTA EXTN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO16228769567DRFlipYESBIDFCB  NPLyblPayment  002261100000025Flipkart Pay Later  OthPSPPayment from PhonePe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO16203229499DRPaytPYTMtmpt  mbbppaytmOid1  19744201000007Paytm  OthPSPOid11091212653Paytm Ut </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICICI PRUDENTIAL LIF Zone Serial  3638 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Cash Deposit Home Branch  ValueDate10JUN20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPIO17081360581DRPaytPYTMỊ  epaytmOid1113  19744201000007Paytm Idea Mobile  Recharge  OthPSPOid11131666254Paytm Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH DEPOSIT BRANCH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АCH  DEBITTXRX3772357BDECSInvescoM  F NACH INTERFACE 20200620 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">146032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">424.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,111.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,450.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">335.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,000.00 </t>
+    <t>Bank Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Dec 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Dec 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Dec  2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 Dec  2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Dec  2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Dec  2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dec  2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Jan  2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Jan  2021 </t>
+  </si>
+  <si>
+    <t>10 Dec  2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY TRANSFER-INB Reversal  of IMPS00143371819/RRN  033918926020- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM WDL-ATM CASH 03411  +YBL ASHOK VIHAR NEW DELHI- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITHDRAWAL TRANSFER-- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO CLEARING-UBI THE NEW  INDIA ASSU CO LTD-490596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-INB self- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY TRANSFER-  NEFT*ALLA0210411*ALLAH20  358242497*M/s. MEDICAL  SUP- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO TRANSFER-INB CITI Credit  card CITI_CC Payments- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREDIT INTEREST-- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXADPVWFB3M  XADPVWFB3 TRANSFERFROM  4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER TO  38563105739 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">490596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">II90275063  TRANSFER TO  33359530990 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER  FROM  3199679044302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSBI9588159947I  GAKCQSEH4TRANSFER  TO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSBI9684846992I  GAKIMQNE5TRANSFER  TO </t>
   </si>
   <si>
     <t xml:space="preserve">10,000.00 </t>
   </si>
   <si>
-    <t xml:space="preserve">624.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">424.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,000.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,576.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,465.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,015.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">897.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">561.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">482.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,482.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,482.54 </t>
+    <t xml:space="preserve">12,879.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,020.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,244.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,743.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,07,722.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,800.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,56,839.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,46,839.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,36,839.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,23,960.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,18,940.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,73,940.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,81,662.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,76,418.26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,83,218.26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,70,339.26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,39,596.26 </t>
   </si>
 </sst>
 </file>
@@ -566,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,85 +570,109 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -680,219 +680,175 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
